--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mark R J Watt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1166,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1317,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1264,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1416,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1463,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1666,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/08/2019</t>
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1713,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>20/08/2019</t>
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1756,7 +1812,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1816,7 +1871,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1868,7 +1923,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1908,7 +1963,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2010,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2004,7 +2057,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -2012,7 +2064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2104,7 +2156,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2203,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -2160,7 +2210,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2212,7 +2262,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2302,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -2260,7 +2309,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2312,7 +2361,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2364,7 +2413,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2416,7 +2465,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2468,7 +2517,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2508,7 +2557,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -2516,7 +2564,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2568,7 +2616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2620,7 +2668,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2660,7 +2708,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>13/08/2022</t>
@@ -2668,7 +2715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2720,7 +2767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2772,7 +2819,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2824,7 +2871,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2876,7 +2923,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2928,7 +2975,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2968,7 +3015,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -2976,7 +3022,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3016,7 +3062,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -3024,7 +3069,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3076,7 +3121,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3128,7 +3173,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3180,7 +3225,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3219,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3241,7 +3286,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3278,7 +3323,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3315,7 +3360,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3352,7 +3397,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3389,7 +3434,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3426,7 +3471,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3463,7 +3508,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3500,7 +3545,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3537,7 +3582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3574,7 +3619,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3611,7 +3656,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3648,7 +3693,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3685,7 +3730,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3722,7 +3767,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3759,7 +3804,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3796,7 +3841,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3833,7 +3878,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3870,7 +3915,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3907,7 +3952,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3944,7 +3989,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3981,7 +4026,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4018,7 +4063,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4055,7 +4100,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4092,7 +4137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4129,7 +4174,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4166,7 +4211,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4203,7 +4248,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4240,7 +4285,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4277,7 +4322,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4314,7 +4359,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4351,7 +4396,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4388,7 +4433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4425,7 +4470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4462,7 +4507,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4499,7 +4544,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4536,7 +4581,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4573,7 +4618,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4610,7 +4655,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4647,7 +4692,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4684,7 +4729,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4721,7 +4766,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4758,7 +4803,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4795,7 +4840,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4832,7 +4877,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4869,7 +4914,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4906,7 +4951,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4943,7 +4988,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4980,7 +5025,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5017,7 +5062,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5054,7 +5099,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5091,7 +5136,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5128,7 +5173,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5165,7 +5210,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5202,7 +5247,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5228,6 +5273,549 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>3/29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.81%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.02%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.13%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.42%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.80%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5366,9 +5367,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5381,15 +5379,496 @@
           <t>4573</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.81%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.02%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.13%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.42%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.80%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5397,23 +5876,14 @@
           <t>4604</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5423,29 +5893,12 @@
           <t>4610</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.81%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5453,27 +5906,14 @@
           <t>4612</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.02%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5483,15 +5923,14 @@
           <t>4617</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5501,29 +5940,12 @@
           <t>4625</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.13%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5531,27 +5953,14 @@
           <t>4629</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.82%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -5563,13 +5972,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5577,27 +5979,14 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.42%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -5609,13 +5998,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5623,29 +6005,12 @@
           <t>4677</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.69%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5653,27 +6018,14 @@
           <t>4681</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.80%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5683,27 +6035,14 @@
           <t>4680</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5713,15 +6052,14 @@
           <t>4684</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5731,15 +6069,14 @@
           <t>4702</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5749,27 +6086,14 @@
           <t>4703</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5779,27 +6103,14 @@
           <t>4705</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.52%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -5811,13 +6122,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4436.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -865,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -912,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -1167,6 +1168,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -1318,6 +1320,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1417,6 +1420,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -1464,6 +1468,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -1667,6 +1672,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/08/2019</t>
@@ -1714,6 +1720,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>20/08/2019</t>
@@ -1813,6 +1820,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -1964,6 +1972,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -2011,6 +2020,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -2058,6 +2068,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -2157,6 +2168,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2204,6 +2216,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -2303,6 +2316,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -2558,6 +2572,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -2709,6 +2724,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>13/08/2022</t>
@@ -3016,6 +3032,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -3063,6 +3080,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -5280,850 +5298,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.81%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.02%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.13%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.82%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.42%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.69%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.80%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.52%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>